--- a/actual_release.xlsx
+++ b/actual_release.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2744AA2-1283-4539-8FDE-6C2DAD1F4DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABD3F3-9785-4448-91B3-424014BFD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenSources_v1" sheetId="6" r:id="rId1"/>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686ECB04-D15C-468B-BEBB-67C51DA26D86}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/actual_release.xlsx
+++ b/actual_release.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABD3F3-9785-4448-91B3-424014BFD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B74EED-1F0C-424F-8DFE-F6638CB5CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686ECB04-D15C-468B-BEBB-67C51DA26D86}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -782,8 +784,8 @@
       <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -1101,7 +1103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1393,8 +1397,8 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>

--- a/actual_release.xlsx
+++ b/actual_release.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65C068-4229-4BFB-8EBB-82191F26A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C20D87-AC24-4DAF-BFE7-5EDADCCE7424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenSources" sheetId="1" r:id="rId1"/>
@@ -492,531 +492,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD512997-2CD9-4B3D-8884-0626EF3BFB7D}">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,23 +565,23 @@
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1119,20 +594,20 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1145,20 +620,20 @@
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,8 +643,8 @@
       <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1200,8 +675,8 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1209,8 +684,8 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1220,23 +695,23 @@
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,20 +721,20 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
@@ -1272,20 +747,20 @@
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>14</v>
@@ -1298,6 +773,533 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD512997-2CD9-4B3D-8884-0626EF3BFB7D}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1312,8 @@
       <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>

--- a/actual_release.xlsx
+++ b/actual_release.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C20D87-AC24-4DAF-BFE7-5EDADCCE7424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8A21F-D4F9-4CA9-8937-2F8980EF8B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenSources" sheetId="1" r:id="rId1"/>
@@ -1017,9 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD512997-2CD9-4B3D-8884-0626EF3BFB7D}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
